--- a/nekjfn.xlsx
+++ b/nekjfn.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -64,46 +64,13 @@
     <t xml:space="preserve">Something hit the battery</t>
   </si>
   <si>
-    <t xml:space="preserve">H2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liftup(object lifter:Robot Handle)(being lifted&lt;Too heavy&gt;:patient)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The person is to heavy to be lifted by the robot</t>
+    <t xml:space="preserve">Risk</t>
   </si>
   <si>
     <t xml:space="preserve">Denied</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-Initiating event for H2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mitigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somebody ate to much</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cause 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot is to weak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electric consumption(electric consumer:Robot)(electricity source&lt;Explosion&gt;:Battery)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cause damage to robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Initiating event for H3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bad batteries</t>
   </si>
   <si>
     <t xml:space="preserve">H4</t>
@@ -162,6 +129,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -192,7 +160,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,13 +170,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3366FF"/>
-        <bgColor rgb="FF0066CC"/>
+        <bgColor rgb="FF2A6099"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -288,41 +274,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -333,11 +319,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,6 +380,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF2A6099"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -369,15 +451,15 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,252 +531,208 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="n">
+        <f aca="false">A8*B8</f>
+        <v>0.35</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B23" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10" t="n">
-        <f aca="false">C9*D9</f>
-        <v>0.35</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="B27" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="B28" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="14" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="B31" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B34" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="B40" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
+      <c r="B41" s="23" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
